--- a/tasadeinteresmex-usa.xlsx
+++ b/tasadeinteresmex-usa.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscka\Downloads\Correlación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Downloads\Simulacio nodo MARIANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B35BCA-C546-4EB8-A6CB-21FA56773D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{ED883126-3D61-46EF-8886-84BDF78CC576}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19280" windowHeight="7130" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL" sheetId="1" r:id="rId1"/>
     <sheet name="MENSUALMX" sheetId="2" r:id="rId2"/>
     <sheet name="MENSUALUSA" sheetId="3" r:id="rId3"/>
     <sheet name="DIFERENCIAL" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TOTAL!$A$1:$E$4010</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>Fecha</t>
   </si>
@@ -58,11 +58,14 @@
   <si>
     <t>DIFERENCIAL</t>
   </si>
+  <si>
+    <t>Diferencial</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
@@ -529,7 +532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E0D102-798D-4DF9-9C8F-1A086AD2F243}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E4010"/>
   <sheetViews>
@@ -537,9 +540,9 @@
       <selection activeCell="D1999" sqref="D1999:E1999"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -28749,7 +28752,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="2016" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2016" spans="1:5" ht="15" thickBot="1">
       <c r="A2016" s="3">
         <v>45016</v>
       </c>
@@ -30877,7 +30880,7 @@
     <row r="4009" hidden="1"/>
     <row r="4010" hidden="1"/>
   </sheetData>
-  <autoFilter ref="A1:E4010" xr:uid="{B1E0D102-798D-4DF9-9C8F-1A086AD2F243}">
+  <autoFilter ref="A1:E4010">
     <filterColumn colId="3">
       <filters>
         <dateGroupItem year="2023" dateTimeGrouping="year"/>
@@ -30889,16 +30892,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209C0846-55B1-4E43-94FB-D3834C9479E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -31680,14 +31683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3002CA1C-1FE5-49A9-A888-2FF752AECEA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -32471,888 +32474,1416 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C45FEE-FEA0-4D0D-9B54-C93D8F3D1EA8}">
-  <dimension ref="A1:B97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E97"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11">
+        <v>42095</v>
+      </c>
+      <c r="B2">
+        <f>MENSUALMX!B2-MENSUALUSA!B2</f>
+        <v>1.27</v>
+      </c>
+      <c r="D2" s="11">
+        <f>A4</f>
+        <v>42156</v>
+      </c>
+      <c r="E2">
+        <f>B4</f>
+        <v>0.83999999999999986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11">
+        <v>42125</v>
+      </c>
+      <c r="B3">
+        <f>MENSUALMX!B3-MENSUALUSA!B3</f>
+        <v>0.88999999999999968</v>
+      </c>
+      <c r="D3" s="11">
+        <f>A7</f>
+        <v>42248</v>
+      </c>
+      <c r="E3">
+        <f>B7</f>
+        <v>0.93000000000000016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11">
+        <v>42156</v>
+      </c>
+      <c r="B4">
+        <f>MENSUALMX!B4-MENSUALUSA!B4</f>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="D4" s="11">
+        <f>A10</f>
+        <v>42339</v>
+      </c>
+      <c r="E4">
+        <f>B10</f>
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11">
+        <v>42186</v>
+      </c>
+      <c r="B5">
+        <f>MENSUALMX!B5-MENSUALUSA!B5</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="D5" s="11">
+        <f>A13</f>
+        <v>42430</v>
+      </c>
+      <c r="E5">
+        <f>B13</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11">
+        <v>42217</v>
+      </c>
+      <c r="B6">
+        <f>MENSUALMX!B6-MENSUALUSA!B6</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="D6" s="11">
+        <f>A16</f>
+        <v>42522</v>
+      </c>
+      <c r="E6">
+        <f>B16</f>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11">
+        <v>42248</v>
+      </c>
+      <c r="B7">
+        <f>MENSUALMX!B7-MENSUALUSA!B7</f>
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="D7" s="11">
+        <f>A19</f>
+        <v>42614</v>
+      </c>
+      <c r="E7">
+        <f>B19</f>
+        <v>2.7418999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11">
+        <v>42278</v>
+      </c>
+      <c r="B8">
+        <f>MENSUALMX!B8-MENSUALUSA!B8</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <f>A22</f>
+        <v>42705</v>
+      </c>
+      <c r="E8">
+        <f>B22</f>
+        <v>2.8118999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11">
+        <v>42309</v>
+      </c>
+      <c r="B9">
+        <f>MENSUALMX!B9-MENSUALUSA!B9</f>
+        <v>0.86999999999999966</v>
+      </c>
+      <c r="D9" s="11">
+        <f>A25</f>
+        <v>42795</v>
+      </c>
+      <c r="E9">
+        <f>B25</f>
+        <v>3.8674000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11">
+        <v>42339</v>
+      </c>
+      <c r="B10">
+        <f>MENSUALMX!B10-MENSUALUSA!B10</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="D10" s="11">
+        <f>A28</f>
+        <v>42887</v>
+      </c>
+      <c r="E10">
+        <f>B28</f>
+        <v>4.6286000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11">
+        <v>42370</v>
+      </c>
+      <c r="B11">
+        <f>MENSUALMX!B11-MENSUALUSA!B11</f>
+        <v>1.0599999999999996</v>
+      </c>
+      <c r="D11" s="11">
+        <f>A31</f>
+        <v>42979</v>
+      </c>
+      <c r="E11">
+        <f>B31</f>
+        <v>4.9142999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11">
+        <v>42401</v>
+      </c>
+      <c r="B12">
+        <f>MENSUALMX!B12-MENSUALUSA!B12</f>
+        <v>1.32</v>
+      </c>
+      <c r="D12" s="11">
+        <f>A34</f>
+        <v>43070</v>
+      </c>
+      <c r="E12">
+        <f>B34</f>
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11">
+        <v>42430</v>
+      </c>
+      <c r="B13">
+        <f>MENSUALMX!B13-MENSUALUSA!B13</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="11">
+        <f>A37</f>
+        <v>43160</v>
+      </c>
+      <c r="E13">
+        <f>B37</f>
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11">
+        <v>42461</v>
+      </c>
+      <c r="B14">
+        <f>MENSUALMX!B14-MENSUALUSA!B14</f>
+        <v>1.9699999999999998</v>
+      </c>
+      <c r="D14" s="11">
+        <f>A40</f>
+        <v>43252</v>
+      </c>
+      <c r="E14">
+        <f>B40</f>
+        <v>4.7099999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11">
+        <v>42491</v>
+      </c>
+      <c r="B15">
+        <f>MENSUALMX!B15-MENSUALUSA!B15</f>
+        <v>1.9700000000000002</v>
+      </c>
+      <c r="D15" s="11">
+        <f>A43</f>
+        <v>43344</v>
+      </c>
+      <c r="E15">
+        <f>B43</f>
+        <v>4.8900000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11">
+        <v>42522</v>
+      </c>
+      <c r="B16">
+        <f>MENSUALMX!B16-MENSUALUSA!B16</f>
+        <v>1.98</v>
+      </c>
+      <c r="D16" s="11">
+        <f>A46</f>
+        <v>43435</v>
+      </c>
+      <c r="E16">
+        <f>B46</f>
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11">
+        <v>42552</v>
+      </c>
+      <c r="B17">
+        <f>MENSUALMX!B17-MENSUALUSA!B17</f>
+        <v>2.8099999999999996</v>
+      </c>
+      <c r="D17" s="11">
+        <f>A49</f>
+        <v>43525</v>
+      </c>
+      <c r="E17">
+        <f>B49</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="11">
+        <v>42583</v>
+      </c>
+      <c r="B18">
+        <f>MENSUALMX!B18-MENSUALUSA!B18</f>
+        <v>2.83</v>
+      </c>
+      <c r="D18" s="11">
+        <f>A52</f>
+        <v>43617</v>
+      </c>
+      <c r="E18">
+        <f>B52</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="11">
+        <v>42614</v>
+      </c>
+      <c r="B19">
+        <f>MENSUALMX!B19-MENSUALUSA!B19</f>
+        <v>2.7418999999999993</v>
+      </c>
+      <c r="D19" s="11">
+        <f>A55</f>
+        <v>43709</v>
+      </c>
+      <c r="E19">
+        <f>B55</f>
+        <v>6.7299999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="11">
+        <v>42644</v>
+      </c>
+      <c r="B20">
+        <f>MENSUALMX!B20-MENSUALUSA!B20</f>
+        <v>3.1678999999999999</v>
+      </c>
+      <c r="D20" s="11">
+        <f>A58</f>
+        <v>43800</v>
+      </c>
+      <c r="E20">
+        <f>B58</f>
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B21">
+        <f>MENSUALMX!B21-MENSUALUSA!B21</f>
+        <v>2.9626000000000001</v>
+      </c>
+      <c r="D21" s="11">
+        <f>A61</f>
+        <v>43891</v>
+      </c>
+      <c r="E21">
+        <f>B61</f>
+        <v>5.9499999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11">
+        <v>42705</v>
+      </c>
+      <c r="B22">
+        <f>MENSUALMX!B22-MENSUALUSA!B22</f>
+        <v>2.8118999999999996</v>
+      </c>
+      <c r="D22" s="11">
+        <f>A64</f>
+        <v>43983</v>
+      </c>
+      <c r="E22">
+        <f>B64</f>
+        <v>4.9399999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11">
+        <v>42736</v>
+      </c>
+      <c r="B23">
+        <f>MENSUALMX!B23-MENSUALUSA!B23</f>
+        <v>3.3056999999999999</v>
+      </c>
+      <c r="D23" s="11">
+        <f>A67</f>
+        <v>44075</v>
+      </c>
+      <c r="E23">
+        <f>B67</f>
+        <v>3.8299999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="11">
+        <v>42767</v>
+      </c>
+      <c r="B24">
+        <f>MENSUALMX!B24-MENSUALUSA!B24</f>
+        <v>3.3201000000000001</v>
+      </c>
+      <c r="D24" s="11">
+        <f>A70</f>
+        <v>44166</v>
+      </c>
+      <c r="E24">
+        <f>B70</f>
+        <v>3.4299999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="11">
+        <v>42795</v>
+      </c>
+      <c r="B25">
+        <f>MENSUALMX!B25-MENSUALUSA!B25</f>
+        <v>3.8674000000000004</v>
+      </c>
+      <c r="D25" s="11">
+        <f>A73</f>
+        <v>44256</v>
+      </c>
+      <c r="E25">
+        <f>B73</f>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="11">
+        <v>42826</v>
+      </c>
+      <c r="B26">
+        <f>MENSUALMX!B26-MENSUALUSA!B26</f>
+        <v>4.3506999999999998</v>
+      </c>
+      <c r="D26" s="11">
+        <f>A76</f>
+        <v>44348</v>
+      </c>
+      <c r="E26">
+        <f>B76</f>
+        <v>2.4299999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="11">
+        <v>42856</v>
+      </c>
+      <c r="B27">
+        <f>MENSUALMX!B27-MENSUALUSA!B27</f>
+        <v>4.4019999999999992</v>
+      </c>
+      <c r="D27" s="11">
+        <f>A79</f>
+        <v>44440</v>
+      </c>
+      <c r="E27">
+        <f>B79</f>
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="11">
+        <v>42887</v>
+      </c>
+      <c r="B28">
+        <f>MENSUALMX!B28-MENSUALUSA!B28</f>
+        <v>4.6286000000000005</v>
+      </c>
+      <c r="D28" s="11">
+        <f>A82</f>
+        <v>44531</v>
+      </c>
+      <c r="E28">
+        <f>B82</f>
+        <v>3.5500000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="11">
+        <v>42917</v>
+      </c>
+      <c r="B29">
+        <f>MENSUALMX!B29-MENSUALUSA!B29</f>
+        <v>4.7500999999999998</v>
+      </c>
+      <c r="D29" s="11">
+        <f>A85</f>
+        <v>44621</v>
+      </c>
+      <c r="E29">
+        <f>B85</f>
+        <v>4.3100000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11">
+        <v>42948</v>
+      </c>
+      <c r="B30">
+        <f>MENSUALMX!B30-MENSUALUSA!B30</f>
+        <v>4.8567999999999998</v>
+      </c>
+      <c r="D30" s="11">
+        <f>A88</f>
+        <v>44713</v>
+      </c>
+      <c r="E30">
+        <f>B88</f>
+        <v>4.1300000000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11">
+        <v>42979</v>
+      </c>
+      <c r="B31">
+        <f>MENSUALMX!B31-MENSUALUSA!B31</f>
+        <v>4.9142999999999999</v>
+      </c>
+      <c r="D31" s="11">
+        <f>A91</f>
+        <v>44805</v>
+      </c>
+      <c r="E31">
+        <f>B91</f>
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="11">
+        <v>43009</v>
+      </c>
+      <c r="B32">
+        <f>MENSUALMX!B32-MENSUALUSA!B32</f>
+        <v>4.7392000000000003</v>
+      </c>
+      <c r="D32" s="11">
+        <f>A94</f>
+        <v>44896</v>
+      </c>
+      <c r="E32">
+        <f>B94</f>
+        <v>6.5200000000000014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="11">
+        <v>43040</v>
+      </c>
+      <c r="B33">
+        <f>MENSUALMX!B33-MENSUALUSA!B33</f>
+        <v>4.6678999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="11">
+        <v>43070</v>
+      </c>
+      <c r="B34">
+        <f>MENSUALMX!B34-MENSUALUSA!B34</f>
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="11">
+        <v>43101</v>
+      </c>
+      <c r="B35">
+        <f>MENSUALMX!B35-MENSUALUSA!B35</f>
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="11">
+        <v>43132</v>
+      </c>
+      <c r="B36">
+        <f>MENSUALMX!B36-MENSUALUSA!B36</f>
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="11">
+        <v>43160</v>
+      </c>
+      <c r="B37">
+        <f>MENSUALMX!B37-MENSUALUSA!B37</f>
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="11">
+        <v>43191</v>
+      </c>
+      <c r="B38">
+        <f>MENSUALMX!B38-MENSUALUSA!B38</f>
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="11">
+        <v>43221</v>
+      </c>
+      <c r="B39">
+        <f>MENSUALMX!B39-MENSUALUSA!B39</f>
+        <v>4.629999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="11">
+        <v>43252</v>
+      </c>
+      <c r="B40">
+        <f>MENSUALMX!B40-MENSUALUSA!B40</f>
+        <v>4.7099999999999991</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="11">
+        <v>43282</v>
+      </c>
+      <c r="B41">
+        <f>MENSUALMX!B41-MENSUALUSA!B41</f>
+        <v>4.8999999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="11">
+        <v>43313</v>
+      </c>
+      <c r="B42">
+        <f>MENSUALMX!B42-MENSUALUSA!B42</f>
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="11">
+        <v>43344</v>
+      </c>
+      <c r="B43">
+        <f>MENSUALMX!B43-MENSUALUSA!B43</f>
+        <v>4.8900000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="11">
+        <v>43374</v>
+      </c>
+      <c r="B44">
+        <f>MENSUALMX!B44-MENSUALUSA!B44</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="11">
+        <v>43405</v>
+      </c>
+      <c r="B45">
+        <f>MENSUALMX!B45-MENSUALUSA!B45</f>
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="11">
+        <v>43435</v>
+      </c>
+      <c r="B46">
+        <f>MENSUALMX!B46-MENSUALUSA!B46</f>
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="11">
+        <v>43466</v>
+      </c>
+      <c r="B47">
+        <f>MENSUALMX!B47-MENSUALUSA!B47</f>
+        <v>5.6400000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="11">
+        <v>43497</v>
+      </c>
+      <c r="B48">
+        <f>MENSUALMX!B48-MENSUALUSA!B48</f>
+        <v>5.5799999999999992</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="11">
+        <v>43525</v>
+      </c>
+      <c r="B49">
+        <f>MENSUALMX!B49-MENSUALUSA!B49</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="11">
+        <v>43556</v>
+      </c>
+      <c r="B50">
+        <f>MENSUALMX!B50-MENSUALUSA!B50</f>
+        <v>5.7899999999999991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="11">
+        <v>43586</v>
+      </c>
+      <c r="B51">
+        <f>MENSUALMX!B51-MENSUALUSA!B51</f>
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="11">
+        <v>43617</v>
+      </c>
+      <c r="B52">
+        <f>MENSUALMX!B52-MENSUALUSA!B52</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="11">
+        <v>43647</v>
+      </c>
+      <c r="B53">
+        <f>MENSUALMX!B53-MENSUALUSA!B53</f>
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="11">
+        <v>43678</v>
+      </c>
+      <c r="B54">
+        <f>MENSUALMX!B54-MENSUALUSA!B54</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="11">
+        <v>43709</v>
+      </c>
+      <c r="B55">
+        <f>MENSUALMX!B55-MENSUALUSA!B55</f>
+        <v>6.7299999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="11">
+        <v>43739</v>
+      </c>
+      <c r="B56">
+        <f>MENSUALMX!B56-MENSUALUSA!B56</f>
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="11">
+        <v>43770</v>
+      </c>
+      <c r="B57">
+        <f>MENSUALMX!B57-MENSUALUSA!B57</f>
+        <v>6.0600000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="11">
+        <v>43800</v>
+      </c>
+      <c r="B58">
+        <f>MENSUALMX!B58-MENSUALUSA!B58</f>
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="11">
+        <v>43831</v>
+      </c>
+      <c r="B59">
+        <f>MENSUALMX!B59-MENSUALUSA!B59</f>
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="11">
+        <v>43862</v>
+      </c>
+      <c r="B60">
+        <f>MENSUALMX!B60-MENSUALUSA!B60</f>
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="11">
+        <v>43891</v>
+      </c>
+      <c r="B61">
+        <f>MENSUALMX!B61-MENSUALUSA!B61</f>
+        <v>5.9499999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="11">
+        <v>43922</v>
+      </c>
+      <c r="B62">
+        <f>MENSUALMX!B62-MENSUALUSA!B62</f>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="11">
+        <v>43952</v>
+      </c>
+      <c r="B63">
+        <f>MENSUALMX!B63-MENSUALUSA!B63</f>
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="11">
+        <v>43983</v>
+      </c>
+      <c r="B64">
+        <f>MENSUALMX!B64-MENSUALUSA!B64</f>
+        <v>4.9399999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="11">
+        <v>44013</v>
+      </c>
+      <c r="B65">
+        <f>MENSUALMX!B65-MENSUALUSA!B65</f>
+        <v>4.3699999999999992</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="11">
+        <v>44044</v>
+      </c>
+      <c r="B66">
+        <f>MENSUALMX!B66-MENSUALUSA!B66</f>
+        <v>4.4599999999999991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="11">
+        <v>44075</v>
+      </c>
+      <c r="B67">
+        <f>MENSUALMX!B67-MENSUALUSA!B67</f>
+        <v>3.8299999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="11">
+        <v>44105</v>
+      </c>
+      <c r="B68">
+        <f>MENSUALMX!B68-MENSUALUSA!B68</f>
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="11">
+        <v>44136</v>
+      </c>
+      <c r="B69">
+        <f>MENSUALMX!B69-MENSUALUSA!B69</f>
+        <v>3.3899999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="11">
+        <v>44166</v>
+      </c>
+      <c r="B70">
+        <f>MENSUALMX!B70-MENSUALUSA!B70</f>
+        <v>3.4299999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="11">
+        <v>44197</v>
+      </c>
+      <c r="B71">
+        <f>MENSUALMX!B71-MENSUALUSA!B71</f>
+        <v>3.3699999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="11">
+        <v>44228</v>
+      </c>
+      <c r="B72">
+        <f>MENSUALMX!B72-MENSUALUSA!B72</f>
+        <v>3.1799999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="11">
+        <v>44256</v>
+      </c>
+      <c r="B73">
+        <f>MENSUALMX!B73-MENSUALUSA!B73</f>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="11">
+        <v>44287</v>
+      </c>
+      <c r="B74">
+        <f>MENSUALMX!B74-MENSUALUSA!B74</f>
+        <v>2.3699999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="11">
+        <v>44317</v>
+      </c>
+      <c r="B75">
+        <f>MENSUALMX!B75-MENSUALUSA!B75</f>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="11">
+        <v>44348</v>
+      </c>
+      <c r="B76">
+        <f>MENSUALMX!B76-MENSUALUSA!B76</f>
+        <v>2.4299999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="11">
+        <v>44378</v>
+      </c>
+      <c r="B77">
+        <f>MENSUALMX!B77-MENSUALUSA!B77</f>
+        <v>2.7500000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="11">
+        <v>44409</v>
+      </c>
+      <c r="B78">
+        <f>MENSUALMX!B78-MENSUALUSA!B78</f>
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="11">
+        <v>44440</v>
+      </c>
+      <c r="B79">
+        <f>MENSUALMX!B79-MENSUALUSA!B79</f>
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="11">
+        <v>44470</v>
+      </c>
+      <c r="B80">
+        <f>MENSUALMX!B80-MENSUALUSA!B80</f>
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="11">
+        <v>44501</v>
+      </c>
+      <c r="B81">
+        <f>MENSUALMX!B81-MENSUALUSA!B81</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="11">
+        <v>44531</v>
+      </c>
+      <c r="B82">
+        <f>MENSUALMX!B82-MENSUALUSA!B82</f>
+        <v>3.5500000000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="11">
+        <v>44562</v>
+      </c>
+      <c r="B83">
+        <f>MENSUALMX!B83-MENSUALUSA!B83</f>
+        <v>3.8500000000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="11">
+        <v>44593</v>
+      </c>
+      <c r="B84">
+        <f>MENSUALMX!B84-MENSUALUSA!B84</f>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="11">
+        <v>44621</v>
+      </c>
+      <c r="B85">
+        <f>MENSUALMX!B85-MENSUALUSA!B85</f>
+        <v>4.3100000000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="11">
+        <v>44652</v>
+      </c>
+      <c r="B86">
+        <f>MENSUALMX!B86-MENSUALUSA!B86</f>
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="11">
+        <v>44682</v>
+      </c>
+      <c r="B87">
+        <f>MENSUALMX!B87-MENSUALUSA!B87</f>
+        <v>3.5599999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="11">
+        <v>44713</v>
+      </c>
+      <c r="B88">
+        <f>MENSUALMX!B88-MENSUALUSA!B88</f>
+        <v>4.1300000000000008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="11">
+        <v>44743</v>
+      </c>
+      <c r="B89">
+        <f>MENSUALMX!B89-MENSUALUSA!B89</f>
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="11">
+        <v>44774</v>
+      </c>
+      <c r="B90">
+        <f>MENSUALMX!B90-MENSUALUSA!B90</f>
+        <v>5.1899999999999995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="11">
+        <v>44805</v>
+      </c>
+      <c r="B91">
+        <f>MENSUALMX!B91-MENSUALUSA!B91</f>
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="11">
+        <v>44835</v>
+      </c>
+      <c r="B92">
+        <f>MENSUALMX!B92-MENSUALUSA!B92</f>
+        <v>5.6199999999999992</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="11">
+        <v>44866</v>
+      </c>
+      <c r="B93">
+        <f>MENSUALMX!B93-MENSUALUSA!B93</f>
+        <v>5.1899999999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="11">
+        <v>44896</v>
+      </c>
+      <c r="B94">
+        <f>MENSUALMX!B94-MENSUALUSA!B94</f>
+        <v>6.5200000000000014</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="11">
+        <v>44927</v>
+      </c>
+      <c r="B95">
+        <f>MENSUALMX!B95-MENSUALUSA!B95</f>
+        <v>6.7499999999999991</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="11">
+        <v>44958</v>
+      </c>
+      <c r="B96">
+        <f>MENSUALMX!B96-MENSUALUSA!B96</f>
+        <v>7.1499999999999986</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="11">
+        <v>44986</v>
+      </c>
+      <c r="B97">
+        <f>MENSUALMX!B97-MENSUALUSA!B97</f>
+        <v>7.0500000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11">
-        <v>42095</v>
+      <c r="A2" s="9">
+        <v>42156</v>
       </c>
       <c r="B2">
-        <f>MENSUALMX!B2-MENSUALUSA!B2</f>
-        <v>1.27</v>
+        <v>0.83999999999999986</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11">
-        <v>42125</v>
+      <c r="A3" s="9">
+        <v>42248</v>
       </c>
       <c r="B3">
-        <f>MENSUALMX!B3-MENSUALUSA!B3</f>
-        <v>0.88999999999999968</v>
+        <v>0.93000000000000016</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11">
-        <v>42156</v>
+      <c r="A4" s="9">
+        <v>42339</v>
       </c>
       <c r="B4">
-        <f>MENSUALMX!B4-MENSUALUSA!B4</f>
-        <v>0.83999999999999986</v>
+        <v>0.91999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11">
-        <v>42186</v>
+      <c r="A5" s="9">
+        <v>42430</v>
       </c>
       <c r="B5">
-        <f>MENSUALMX!B5-MENSUALUSA!B5</f>
-        <v>0.66999999999999993</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11">
-        <v>42217</v>
+      <c r="A6" s="9">
+        <v>42522</v>
       </c>
       <c r="B6">
-        <f>MENSUALMX!B6-MENSUALUSA!B6</f>
-        <v>0.91999999999999993</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11">
-        <v>42248</v>
+      <c r="A7" s="9">
+        <v>42614</v>
       </c>
       <c r="B7">
-        <f>MENSUALMX!B7-MENSUALUSA!B7</f>
-        <v>0.93000000000000016</v>
+        <v>2.7418999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11">
-        <v>42278</v>
+      <c r="A8" s="9">
+        <v>42705</v>
       </c>
       <c r="B8">
-        <f>MENSUALMX!B8-MENSUALUSA!B8</f>
-        <v>1</v>
+        <v>2.8118999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11">
-        <v>42309</v>
+      <c r="A9" s="9">
+        <v>42795</v>
       </c>
       <c r="B9">
-        <f>MENSUALMX!B9-MENSUALUSA!B9</f>
-        <v>0.86999999999999966</v>
+        <v>3.8674000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11">
-        <v>42339</v>
+      <c r="A10" s="9">
+        <v>42887</v>
       </c>
       <c r="B10">
-        <f>MENSUALMX!B10-MENSUALUSA!B10</f>
-        <v>0.91999999999999993</v>
+        <v>4.6286000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11">
-        <v>42370</v>
+      <c r="A11" s="9">
+        <v>42979</v>
       </c>
       <c r="B11">
-        <f>MENSUALMX!B11-MENSUALUSA!B11</f>
-        <v>1.0599999999999996</v>
+        <v>4.9142999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11">
-        <v>42401</v>
+      <c r="A12" s="9">
+        <v>43070</v>
       </c>
       <c r="B12">
-        <f>MENSUALMX!B12-MENSUALUSA!B12</f>
-        <v>1.32</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11">
-        <v>42430</v>
+      <c r="A13" s="9">
+        <v>43160</v>
       </c>
       <c r="B13">
-        <f>MENSUALMX!B13-MENSUALUSA!B13</f>
-        <v>2</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11">
-        <v>42461</v>
+      <c r="A14" s="9">
+        <v>43252</v>
       </c>
       <c r="B14">
-        <f>MENSUALMX!B14-MENSUALUSA!B14</f>
-        <v>1.9699999999999998</v>
+        <v>4.7099999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11">
-        <v>42491</v>
+      <c r="A15" s="9">
+        <v>43344</v>
       </c>
       <c r="B15">
-        <f>MENSUALMX!B15-MENSUALUSA!B15</f>
-        <v>1.9700000000000002</v>
+        <v>4.8900000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11">
-        <v>42522</v>
+      <c r="A16" s="9">
+        <v>43435</v>
       </c>
       <c r="B16">
-        <f>MENSUALMX!B16-MENSUALUSA!B16</f>
-        <v>1.98</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="11">
-        <v>42552</v>
+      <c r="A17" s="9">
+        <v>43525</v>
       </c>
       <c r="B17">
-        <f>MENSUALMX!B17-MENSUALUSA!B17</f>
-        <v>2.8099999999999996</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="11">
-        <v>42583</v>
+      <c r="A18" s="9">
+        <v>43617</v>
       </c>
       <c r="B18">
-        <f>MENSUALMX!B18-MENSUALUSA!B18</f>
-        <v>2.83</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11">
-        <v>42614</v>
+      <c r="A19" s="9">
+        <v>43709</v>
       </c>
       <c r="B19">
-        <f>MENSUALMX!B19-MENSUALUSA!B19</f>
-        <v>2.7418999999999993</v>
+        <v>6.7299999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="11">
-        <v>42644</v>
+      <c r="A20" s="9">
+        <v>43800</v>
       </c>
       <c r="B20">
-        <f>MENSUALMX!B20-MENSUALUSA!B20</f>
-        <v>3.1678999999999999</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11">
-        <v>42675</v>
+      <c r="A21" s="9">
+        <v>43891</v>
       </c>
       <c r="B21">
-        <f>MENSUALMX!B21-MENSUALUSA!B21</f>
-        <v>2.9626000000000001</v>
+        <v>5.9499999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="11">
-        <v>42705</v>
+      <c r="A22" s="9">
+        <v>43983</v>
       </c>
       <c r="B22">
-        <f>MENSUALMX!B22-MENSUALUSA!B22</f>
-        <v>2.8118999999999996</v>
+        <v>4.9399999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="11">
-        <v>42736</v>
+      <c r="A23" s="9">
+        <v>44075</v>
       </c>
       <c r="B23">
-        <f>MENSUALMX!B23-MENSUALUSA!B23</f>
-        <v>3.3056999999999999</v>
+        <v>3.8299999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="11">
-        <v>42767</v>
+      <c r="A24" s="9">
+        <v>44166</v>
       </c>
       <c r="B24">
-        <f>MENSUALMX!B24-MENSUALUSA!B24</f>
-        <v>3.3201000000000001</v>
+        <v>3.4299999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="11">
-        <v>42795</v>
+      <c r="A25" s="9">
+        <v>44256</v>
       </c>
       <c r="B25">
-        <f>MENSUALMX!B25-MENSUALUSA!B25</f>
-        <v>3.8674000000000004</v>
+        <v>2.5999999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="11">
-        <v>42826</v>
+      <c r="A26" s="9">
+        <v>44348</v>
       </c>
       <c r="B26">
-        <f>MENSUALMX!B26-MENSUALUSA!B26</f>
-        <v>4.3506999999999998</v>
+        <v>2.4299999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="11">
-        <v>42856</v>
+      <c r="A27" s="9">
+        <v>44440</v>
       </c>
       <c r="B27">
-        <f>MENSUALMX!B27-MENSUALUSA!B27</f>
-        <v>4.4019999999999992</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="11">
-        <v>42887</v>
+      <c r="A28" s="9">
+        <v>44531</v>
       </c>
       <c r="B28">
-        <f>MENSUALMX!B28-MENSUALUSA!B28</f>
-        <v>4.6286000000000005</v>
+        <v>3.5500000000000007</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="11">
-        <v>42917</v>
+      <c r="A29" s="9">
+        <v>44621</v>
       </c>
       <c r="B29">
-        <f>MENSUALMX!B29-MENSUALUSA!B29</f>
-        <v>4.7500999999999998</v>
+        <v>4.3100000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="11">
-        <v>42948</v>
+      <c r="A30" s="9">
+        <v>44713</v>
       </c>
       <c r="B30">
-        <f>MENSUALMX!B30-MENSUALUSA!B30</f>
-        <v>4.8567999999999998</v>
+        <v>4.1300000000000008</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11">
-        <v>42979</v>
+      <c r="A31" s="9">
+        <v>44805</v>
       </c>
       <c r="B31">
-        <f>MENSUALMX!B31-MENSUALUSA!B31</f>
-        <v>4.9142999999999999</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="11">
-        <v>43009</v>
+      <c r="A32" s="9">
+        <v>44896</v>
       </c>
       <c r="B32">
-        <f>MENSUALMX!B32-MENSUALUSA!B32</f>
-        <v>4.7392000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="11">
-        <v>43040</v>
-      </c>
-      <c r="B33">
-        <f>MENSUALMX!B33-MENSUALUSA!B33</f>
-        <v>4.6678999999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="11">
-        <v>43070</v>
-      </c>
-      <c r="B34">
-        <f>MENSUALMX!B34-MENSUALUSA!B34</f>
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="11">
-        <v>43101</v>
-      </c>
-      <c r="B35">
-        <f>MENSUALMX!B35-MENSUALUSA!B35</f>
-        <v>4.8600000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="11">
-        <v>43132</v>
-      </c>
-      <c r="B36">
-        <f>MENSUALMX!B36-MENSUALUSA!B36</f>
-        <v>4.57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="11">
-        <v>43160</v>
-      </c>
-      <c r="B37">
-        <f>MENSUALMX!B37-MENSUALUSA!B37</f>
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="11">
-        <v>43191</v>
-      </c>
-      <c r="B38">
-        <f>MENSUALMX!B38-MENSUALUSA!B38</f>
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="11">
-        <v>43221</v>
-      </c>
-      <c r="B39">
-        <f>MENSUALMX!B39-MENSUALUSA!B39</f>
-        <v>4.629999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="11">
-        <v>43252</v>
-      </c>
-      <c r="B40">
-        <f>MENSUALMX!B40-MENSUALUSA!B40</f>
-        <v>4.7099999999999991</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="11">
-        <v>43282</v>
-      </c>
-      <c r="B41">
-        <f>MENSUALMX!B41-MENSUALUSA!B41</f>
-        <v>4.8999999999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="11">
-        <v>43313</v>
-      </c>
-      <c r="B42">
-        <f>MENSUALMX!B42-MENSUALUSA!B42</f>
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="11">
-        <v>43344</v>
-      </c>
-      <c r="B43">
-        <f>MENSUALMX!B43-MENSUALUSA!B43</f>
-        <v>4.8900000000000006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="11">
-        <v>43374</v>
-      </c>
-      <c r="B44">
-        <f>MENSUALMX!B44-MENSUALUSA!B44</f>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="11">
-        <v>43405</v>
-      </c>
-      <c r="B45">
-        <f>MENSUALMX!B45-MENSUALUSA!B45</f>
-        <v>4.7300000000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="11">
-        <v>43435</v>
-      </c>
-      <c r="B46">
-        <f>MENSUALMX!B46-MENSUALUSA!B46</f>
-        <v>5.08</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="11">
-        <v>43466</v>
-      </c>
-      <c r="B47">
-        <f>MENSUALMX!B47-MENSUALUSA!B47</f>
-        <v>5.6400000000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="11">
-        <v>43497</v>
-      </c>
-      <c r="B48">
-        <f>MENSUALMX!B48-MENSUALUSA!B48</f>
-        <v>5.5799999999999992</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="11">
-        <v>43525</v>
-      </c>
-      <c r="B49">
-        <f>MENSUALMX!B49-MENSUALUSA!B49</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="11">
-        <v>43556</v>
-      </c>
-      <c r="B50">
-        <f>MENSUALMX!B50-MENSUALUSA!B50</f>
-        <v>5.7899999999999991</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="11">
-        <v>43586</v>
-      </c>
-      <c r="B51">
-        <f>MENSUALMX!B51-MENSUALUSA!B51</f>
-        <v>5.77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="11">
-        <v>43617</v>
-      </c>
-      <c r="B52">
-        <f>MENSUALMX!B52-MENSUALUSA!B52</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="11">
-        <v>43647</v>
-      </c>
-      <c r="B53">
-        <f>MENSUALMX!B53-MENSUALUSA!B53</f>
-        <v>6.23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="11">
-        <v>43678</v>
-      </c>
-      <c r="B54">
-        <f>MENSUALMX!B54-MENSUALUSA!B54</f>
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="11">
-        <v>43709</v>
-      </c>
-      <c r="B55">
-        <f>MENSUALMX!B55-MENSUALUSA!B55</f>
-        <v>6.7299999999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="11">
-        <v>43739</v>
-      </c>
-      <c r="B56">
-        <f>MENSUALMX!B56-MENSUALUSA!B56</f>
-        <v>6.18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="11">
-        <v>43770</v>
-      </c>
-      <c r="B57">
-        <f>MENSUALMX!B57-MENSUALUSA!B57</f>
-        <v>6.0600000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="11">
-        <v>43800</v>
-      </c>
-      <c r="B58">
-        <f>MENSUALMX!B58-MENSUALUSA!B58</f>
-        <v>5.76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="11">
-        <v>43831</v>
-      </c>
-      <c r="B59">
-        <f>MENSUALMX!B59-MENSUALUSA!B59</f>
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="11">
-        <v>43862</v>
-      </c>
-      <c r="B60">
-        <f>MENSUALMX!B60-MENSUALUSA!B60</f>
-        <v>5.72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="11">
-        <v>43891</v>
-      </c>
-      <c r="B61">
-        <f>MENSUALMX!B61-MENSUALUSA!B61</f>
-        <v>5.9499999999999993</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="11">
-        <v>43922</v>
-      </c>
-      <c r="B62">
-        <f>MENSUALMX!B62-MENSUALUSA!B62</f>
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="11">
-        <v>43952</v>
-      </c>
-      <c r="B63">
-        <f>MENSUALMX!B63-MENSUALUSA!B63</f>
-        <v>5.37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="11">
-        <v>43983</v>
-      </c>
-      <c r="B64">
-        <f>MENSUALMX!B64-MENSUALUSA!B64</f>
-        <v>4.9399999999999995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="11">
-        <v>44013</v>
-      </c>
-      <c r="B65">
-        <f>MENSUALMX!B65-MENSUALUSA!B65</f>
-        <v>4.3699999999999992</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="11">
-        <v>44044</v>
-      </c>
-      <c r="B66">
-        <f>MENSUALMX!B66-MENSUALUSA!B66</f>
-        <v>4.4599999999999991</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="11">
-        <v>44075</v>
-      </c>
-      <c r="B67">
-        <f>MENSUALMX!B67-MENSUALUSA!B67</f>
-        <v>3.8299999999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="11">
-        <v>44105</v>
-      </c>
-      <c r="B68">
-        <f>MENSUALMX!B68-MENSUALUSA!B68</f>
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="11">
-        <v>44136</v>
-      </c>
-      <c r="B69">
-        <f>MENSUALMX!B69-MENSUALUSA!B69</f>
-        <v>3.3899999999999997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="11">
-        <v>44166</v>
-      </c>
-      <c r="B70">
-        <f>MENSUALMX!B70-MENSUALUSA!B70</f>
-        <v>3.4299999999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="11">
-        <v>44197</v>
-      </c>
-      <c r="B71">
-        <f>MENSUALMX!B71-MENSUALUSA!B71</f>
-        <v>3.3699999999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="11">
-        <v>44228</v>
-      </c>
-      <c r="B72">
-        <f>MENSUALMX!B72-MENSUALUSA!B72</f>
-        <v>3.1799999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="11">
-        <v>44256</v>
-      </c>
-      <c r="B73">
-        <f>MENSUALMX!B73-MENSUALUSA!B73</f>
-        <v>2.5999999999999996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="11">
-        <v>44287</v>
-      </c>
-      <c r="B74">
-        <f>MENSUALMX!B74-MENSUALUSA!B74</f>
-        <v>2.3699999999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="11">
-        <v>44317</v>
-      </c>
-      <c r="B75">
-        <f>MENSUALMX!B75-MENSUALUSA!B75</f>
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="11">
-        <v>44348</v>
-      </c>
-      <c r="B76">
-        <f>MENSUALMX!B76-MENSUALUSA!B76</f>
-        <v>2.4299999999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="11">
-        <v>44378</v>
-      </c>
-      <c r="B77">
-        <f>MENSUALMX!B77-MENSUALUSA!B77</f>
-        <v>2.7500000000000004</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="11">
-        <v>44409</v>
-      </c>
-      <c r="B78">
-        <f>MENSUALMX!B78-MENSUALUSA!B78</f>
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="11">
-        <v>44440</v>
-      </c>
-      <c r="B79">
-        <f>MENSUALMX!B79-MENSUALUSA!B79</f>
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="11">
-        <v>44470</v>
-      </c>
-      <c r="B80">
-        <f>MENSUALMX!B80-MENSUALUSA!B80</f>
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="11">
-        <v>44501</v>
-      </c>
-      <c r="B81">
-        <f>MENSUALMX!B81-MENSUALUSA!B81</f>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="11">
-        <v>44531</v>
-      </c>
-      <c r="B82">
-        <f>MENSUALMX!B82-MENSUALUSA!B82</f>
-        <v>3.5500000000000007</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="11">
-        <v>44562</v>
-      </c>
-      <c r="B83">
-        <f>MENSUALMX!B83-MENSUALUSA!B83</f>
-        <v>3.8500000000000005</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="11">
-        <v>44593</v>
-      </c>
-      <c r="B84">
-        <f>MENSUALMX!B84-MENSUALUSA!B84</f>
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="11">
-        <v>44621</v>
-      </c>
-      <c r="B85">
-        <f>MENSUALMX!B85-MENSUALUSA!B85</f>
-        <v>4.3100000000000005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="11">
-        <v>44652</v>
-      </c>
-      <c r="B86">
-        <f>MENSUALMX!B86-MENSUALUSA!B86</f>
-        <v>4.1999999999999993</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="11">
-        <v>44682</v>
-      </c>
-      <c r="B87">
-        <f>MENSUALMX!B87-MENSUALUSA!B87</f>
-        <v>3.5599999999999996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="11">
-        <v>44713</v>
-      </c>
-      <c r="B88">
-        <f>MENSUALMX!B88-MENSUALUSA!B88</f>
-        <v>4.1300000000000008</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="11">
-        <v>44743</v>
-      </c>
-      <c r="B89">
-        <f>MENSUALMX!B89-MENSUALUSA!B89</f>
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="11">
-        <v>44774</v>
-      </c>
-      <c r="B90">
-        <f>MENSUALMX!B90-MENSUALUSA!B90</f>
-        <v>5.1899999999999995</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="11">
-        <v>44805</v>
-      </c>
-      <c r="B91">
-        <f>MENSUALMX!B91-MENSUALUSA!B91</f>
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="11">
-        <v>44835</v>
-      </c>
-      <c r="B92">
-        <f>MENSUALMX!B92-MENSUALUSA!B92</f>
-        <v>5.6199999999999992</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="11">
-        <v>44866</v>
-      </c>
-      <c r="B93">
-        <f>MENSUALMX!B93-MENSUALUSA!B93</f>
-        <v>5.1899999999999995</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="11">
-        <v>44896</v>
-      </c>
-      <c r="B94">
-        <f>MENSUALMX!B94-MENSUALUSA!B94</f>
         <v>6.5200000000000014</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="11">
-        <v>44927</v>
-      </c>
-      <c r="B95">
-        <f>MENSUALMX!B95-MENSUALUSA!B95</f>
-        <v>6.7499999999999991</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="11">
-        <v>44958</v>
-      </c>
-      <c r="B96">
-        <f>MENSUALMX!B96-MENSUALUSA!B96</f>
-        <v>7.1499999999999986</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="11">
-        <v>44986</v>
-      </c>
-      <c r="B97">
-        <f>MENSUALMX!B97-MENSUALUSA!B97</f>
-        <v>7.0500000000000007</v>
       </c>
     </row>
   </sheetData>
